--- a/Data/EC/NIT-9005526256.xlsx
+++ b/Data/EC/NIT-9005526256.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E984AB93-D5C2-45F5-8C9E-C816852F59D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B3EDBCF3-36AE-49E9-A97E-40FC7D8C53A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{27FDF68B-B99F-4803-967F-0F33648763BC}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{96191A24-BAB1-42F8-8587-31D0C67C590F}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="101">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -65,256 +65,238 @@
     <t>CC</t>
   </si>
   <si>
+    <t>30878419</t>
+  </si>
+  <si>
+    <t>LIZ PAOLA FORTICH AMAYA</t>
+  </si>
+  <si>
+    <t>1611</t>
+  </si>
+  <si>
+    <t>1612</t>
+  </si>
+  <si>
+    <t>1701</t>
+  </si>
+  <si>
+    <t>1702</t>
+  </si>
+  <si>
+    <t>1703</t>
+  </si>
+  <si>
+    <t>1704</t>
+  </si>
+  <si>
+    <t>1705</t>
+  </si>
+  <si>
+    <t>1706</t>
+  </si>
+  <si>
+    <t>1707</t>
+  </si>
+  <si>
+    <t>1708</t>
+  </si>
+  <si>
+    <t>1709</t>
+  </si>
+  <si>
+    <t>1710</t>
+  </si>
+  <si>
+    <t>1711</t>
+  </si>
+  <si>
+    <t>1712</t>
+  </si>
+  <si>
+    <t>1801</t>
+  </si>
+  <si>
+    <t>1802</t>
+  </si>
+  <si>
     <t>1047367468</t>
   </si>
   <si>
     <t>HARLOD ALBERTO MONTOYA MENDOZA</t>
   </si>
   <si>
+    <t>1810</t>
+  </si>
+  <si>
+    <t>1811</t>
+  </si>
+  <si>
+    <t>1812</t>
+  </si>
+  <si>
+    <t>1901</t>
+  </si>
+  <si>
+    <t>1902</t>
+  </si>
+  <si>
+    <t>1904</t>
+  </si>
+  <si>
+    <t>45511695</t>
+  </si>
+  <si>
+    <t>GLADYS ESTHER TORRES URBINA</t>
+  </si>
+  <si>
+    <t>1905</t>
+  </si>
+  <si>
+    <t>1906</t>
+  </si>
+  <si>
+    <t>1907</t>
+  </si>
+  <si>
+    <t>1908</t>
+  </si>
+  <si>
+    <t>1909</t>
+  </si>
+  <si>
+    <t>1910</t>
+  </si>
+  <si>
+    <t>1911</t>
+  </si>
+  <si>
+    <t>1912</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>2101</t>
+  </si>
+  <si>
+    <t>2102</t>
+  </si>
+  <si>
+    <t>2103</t>
+  </si>
+  <si>
+    <t>2104</t>
+  </si>
+  <si>
+    <t>2105</t>
+  </si>
+  <si>
+    <t>1047391898</t>
+  </si>
+  <si>
+    <t>LEIDY GOMEZ VENERA</t>
+  </si>
+  <si>
+    <t>2106</t>
+  </si>
+  <si>
+    <t>2107</t>
+  </si>
+  <si>
+    <t>2108</t>
+  </si>
+  <si>
+    <t>2109</t>
+  </si>
+  <si>
+    <t>2110</t>
+  </si>
+  <si>
+    <t>2111</t>
+  </si>
+  <si>
+    <t>2112</t>
+  </si>
+  <si>
+    <t>2201</t>
+  </si>
+  <si>
+    <t>2202</t>
+  </si>
+  <si>
+    <t>2203</t>
+  </si>
+  <si>
+    <t>2204</t>
+  </si>
+  <si>
+    <t>2205</t>
+  </si>
+  <si>
+    <t>2206</t>
+  </si>
+  <si>
+    <t>8851681</t>
+  </si>
+  <si>
+    <t>ALEXANDER DE JESUS GOMEZ GUTIERREZ</t>
+  </si>
+  <si>
+    <t>7917979</t>
+  </si>
+  <si>
+    <t>YAIR ENRIQUE MALDONADO DIAZ</t>
+  </si>
+  <si>
+    <t>2207</t>
+  </si>
+  <si>
     <t>2208</t>
   </si>
   <si>
-    <t>2207</t>
-  </si>
-  <si>
-    <t>2206</t>
-  </si>
-  <si>
-    <t>2205</t>
-  </si>
-  <si>
-    <t>2204</t>
-  </si>
-  <si>
-    <t>2203</t>
-  </si>
-  <si>
-    <t>2202</t>
-  </si>
-  <si>
-    <t>2201</t>
-  </si>
-  <si>
-    <t>2112</t>
-  </si>
-  <si>
-    <t>2111</t>
-  </si>
-  <si>
-    <t>2110</t>
-  </si>
-  <si>
-    <t>2109</t>
-  </si>
-  <si>
-    <t>2108</t>
-  </si>
-  <si>
-    <t>2107</t>
-  </si>
-  <si>
-    <t>2106</t>
-  </si>
-  <si>
-    <t>2105</t>
-  </si>
-  <si>
-    <t>2104</t>
-  </si>
-  <si>
-    <t>2103</t>
-  </si>
-  <si>
-    <t>2102</t>
-  </si>
-  <si>
-    <t>2101</t>
-  </si>
-  <si>
-    <t>2012</t>
-  </si>
-  <si>
-    <t>2011</t>
-  </si>
-  <si>
-    <t>2010</t>
-  </si>
-  <si>
-    <t>2009</t>
-  </si>
-  <si>
-    <t>2008</t>
-  </si>
-  <si>
-    <t>2007</t>
-  </si>
-  <si>
-    <t>2006</t>
-  </si>
-  <si>
-    <t>2005</t>
-  </si>
-  <si>
-    <t>2004</t>
-  </si>
-  <si>
-    <t>2003</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>1912</t>
-  </si>
-  <si>
-    <t>1911</t>
-  </si>
-  <si>
-    <t>1910</t>
-  </si>
-  <si>
-    <t>1909</t>
-  </si>
-  <si>
-    <t>1908</t>
-  </si>
-  <si>
-    <t>1907</t>
-  </si>
-  <si>
-    <t>1906</t>
-  </si>
-  <si>
-    <t>1905</t>
-  </si>
-  <si>
-    <t>1904</t>
-  </si>
-  <si>
-    <t>1902</t>
-  </si>
-  <si>
-    <t>1901</t>
-  </si>
-  <si>
-    <t>1812</t>
-  </si>
-  <si>
-    <t>1811</t>
-  </si>
-  <si>
-    <t>1810</t>
-  </si>
-  <si>
-    <t>8851681</t>
-  </si>
-  <si>
-    <t>ALEXANDER DE JESUS GOMEZ GUTIERREZ</t>
-  </si>
-  <si>
-    <t>7917979</t>
-  </si>
-  <si>
-    <t>YAIR ENRIQUE MALDONADO DIAZ</t>
+    <t>2209</t>
+  </si>
+  <si>
+    <t>2210</t>
+  </si>
+  <si>
+    <t>2211</t>
   </si>
   <si>
     <t>2212</t>
-  </si>
-  <si>
-    <t>2211</t>
-  </si>
-  <si>
-    <t>2210</t>
-  </si>
-  <si>
-    <t>2209</t>
-  </si>
-  <si>
-    <t>45511695</t>
-  </si>
-  <si>
-    <t>GLADYS ESTHER TORRES URBINA</t>
-  </si>
-  <si>
-    <t>30878419</t>
-  </si>
-  <si>
-    <t>LIZ PAOLA FORTICH AMAYA</t>
-  </si>
-  <si>
-    <t>1802</t>
-  </si>
-  <si>
-    <t>1801</t>
-  </si>
-  <si>
-    <t>1712</t>
-  </si>
-  <si>
-    <t>1711</t>
-  </si>
-  <si>
-    <t>1710</t>
-  </si>
-  <si>
-    <t>1709</t>
-  </si>
-  <si>
-    <t>1708</t>
-  </si>
-  <si>
-    <t>1707</t>
-  </si>
-  <si>
-    <t>1706</t>
-  </si>
-  <si>
-    <t>1705</t>
-  </si>
-  <si>
-    <t>1704</t>
-  </si>
-  <si>
-    <t>1703</t>
-  </si>
-  <si>
-    <t>1702</t>
-  </si>
-  <si>
-    <t>1701</t>
-  </si>
-  <si>
-    <t>1612</t>
-  </si>
-  <si>
-    <t>1611</t>
-  </si>
-  <si>
-    <t>1047391898</t>
-  </si>
-  <si>
-    <t>LEIDY GOMEZ VENERA</t>
-  </si>
-  <si>
-    <t>1002196438</t>
-  </si>
-  <si>
-    <t>NICHOL DANIELA FIGUEROA GELIS</t>
-  </si>
-  <si>
-    <t>2506</t>
-  </si>
-  <si>
-    <t>1002157382</t>
-  </si>
-  <si>
-    <t>YULIANA MARCELA CORTES VALBUENA</t>
-  </si>
-  <si>
-    <t>2507</t>
   </si>
   <si>
     <t>1143415472</t>
@@ -422,7 +404,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -435,9 +419,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -637,23 +619,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -681,10 +663,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -737,7 +719,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47360018-E125-3638-2FC4-E5D3DBAD8862}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{627F7987-9C11-0C4C-7F94-8FAF9E8AFEA5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1088,8 +1070,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF2A035A-4777-4F7A-B2E0-E03F367BB17F}">
-  <dimension ref="B2:J133"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{634B6880-EB08-4C1E-AB07-2EC17629BCA1}">
+  <dimension ref="B2:J131"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -1113,7 +1095,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -1158,7 +1140,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -1190,12 +1172,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>3536022</v>
+        <v>3424040</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1206,17 +1188,17 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="C13" s="5">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="F13" s="5">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -1243,13 +1225,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1266,10 +1248,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G16" s="18">
-        <v>781242</v>
+        <v>689454</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1289,10 +1271,10 @@
         <v>12</v>
       </c>
       <c r="F17" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G17" s="18">
-        <v>781242</v>
+        <v>689454</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1312,10 +1294,10 @@
         <v>13</v>
       </c>
       <c r="F18" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G18" s="18">
-        <v>781242</v>
+        <v>689454</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
@@ -1335,10 +1317,10 @@
         <v>14</v>
       </c>
       <c r="F19" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G19" s="18">
-        <v>781242</v>
+        <v>689454</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
@@ -1358,10 +1340,10 @@
         <v>15</v>
       </c>
       <c r="F20" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G20" s="18">
-        <v>781242</v>
+        <v>689454</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
@@ -1381,10 +1363,10 @@
         <v>16</v>
       </c>
       <c r="F21" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G21" s="18">
-        <v>781242</v>
+        <v>689454</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
@@ -1404,10 +1386,10 @@
         <v>17</v>
       </c>
       <c r="F22" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G22" s="18">
-        <v>781242</v>
+        <v>689454</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
@@ -1427,10 +1409,10 @@
         <v>18</v>
       </c>
       <c r="F23" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G23" s="18">
-        <v>781242</v>
+        <v>689454</v>
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
@@ -1450,10 +1432,10 @@
         <v>19</v>
       </c>
       <c r="F24" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G24" s="18">
-        <v>781242</v>
+        <v>689454</v>
       </c>
       <c r="H24" s="19"/>
       <c r="I24" s="19"/>
@@ -1473,10 +1455,10 @@
         <v>20</v>
       </c>
       <c r="F25" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G25" s="18">
-        <v>781242</v>
+        <v>689454</v>
       </c>
       <c r="H25" s="19"/>
       <c r="I25" s="19"/>
@@ -1496,10 +1478,10 @@
         <v>21</v>
       </c>
       <c r="F26" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G26" s="18">
-        <v>781242</v>
+        <v>689454</v>
       </c>
       <c r="H26" s="19"/>
       <c r="I26" s="19"/>
@@ -1519,10 +1501,10 @@
         <v>22</v>
       </c>
       <c r="F27" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G27" s="18">
-        <v>781242</v>
+        <v>689454</v>
       </c>
       <c r="H27" s="19"/>
       <c r="I27" s="19"/>
@@ -1542,10 +1524,10 @@
         <v>23</v>
       </c>
       <c r="F28" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G28" s="18">
-        <v>781242</v>
+        <v>689454</v>
       </c>
       <c r="H28" s="19"/>
       <c r="I28" s="19"/>
@@ -1565,10 +1547,10 @@
         <v>24</v>
       </c>
       <c r="F29" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G29" s="18">
-        <v>781242</v>
+        <v>689454</v>
       </c>
       <c r="H29" s="19"/>
       <c r="I29" s="19"/>
@@ -1588,10 +1570,10 @@
         <v>25</v>
       </c>
       <c r="F30" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G30" s="18">
-        <v>781242</v>
+        <v>689454</v>
       </c>
       <c r="H30" s="19"/>
       <c r="I30" s="19"/>
@@ -1611,10 +1593,10 @@
         <v>26</v>
       </c>
       <c r="F31" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G31" s="18">
-        <v>781242</v>
+        <v>689454</v>
       </c>
       <c r="H31" s="19"/>
       <c r="I31" s="19"/>
@@ -1625,16 +1607,16 @@
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F32" s="18">
-        <v>31249</v>
+        <v>16666</v>
       </c>
       <c r="G32" s="18">
         <v>781242</v>
@@ -1648,13 +1630,13 @@
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F33" s="18">
         <v>31249</v>
@@ -1671,13 +1653,13 @@
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F34" s="18">
         <v>31249</v>
@@ -1694,13 +1676,13 @@
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F35" s="18">
         <v>31249</v>
@@ -1717,13 +1699,13 @@
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F36" s="18">
         <v>31249</v>
@@ -1740,13 +1722,13 @@
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F37" s="18">
         <v>31249</v>
@@ -1763,19 +1745,19 @@
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F38" s="18">
-        <v>31249</v>
+        <v>33125</v>
       </c>
       <c r="G38" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H38" s="19"/>
       <c r="I38" s="19"/>
@@ -1786,13 +1768,13 @@
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F39" s="18">
         <v>31249</v>
@@ -1809,19 +1791,19 @@
         <v>8</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F40" s="18">
-        <v>31249</v>
+        <v>33125</v>
       </c>
       <c r="G40" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H40" s="19"/>
       <c r="I40" s="19"/>
@@ -1832,13 +1814,13 @@
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F41" s="18">
         <v>31249</v>
@@ -1855,19 +1837,19 @@
         <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F42" s="18">
-        <v>31249</v>
+        <v>33125</v>
       </c>
       <c r="G42" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H42" s="19"/>
       <c r="I42" s="19"/>
@@ -1878,13 +1860,13 @@
         <v>8</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F43" s="18">
         <v>31249</v>
@@ -1901,19 +1883,19 @@
         <v>8</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="E44" s="16" t="s">
         <v>39</v>
       </c>
       <c r="F44" s="18">
-        <v>31249</v>
+        <v>33125</v>
       </c>
       <c r="G44" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H44" s="19"/>
       <c r="I44" s="19"/>
@@ -1924,10 +1906,10 @@
         <v>8</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="E45" s="16" t="s">
         <v>40</v>
@@ -1947,19 +1929,19 @@
         <v>8</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F46" s="18">
-        <v>31249</v>
+        <v>33125</v>
       </c>
       <c r="G46" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H46" s="19"/>
       <c r="I46" s="19"/>
@@ -1970,13 +1952,13 @@
         <v>8</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F47" s="18">
         <v>31249</v>
@@ -1993,19 +1975,19 @@
         <v>8</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F48" s="18">
-        <v>31249</v>
+        <v>33125</v>
       </c>
       <c r="G48" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H48" s="19"/>
       <c r="I48" s="19"/>
@@ -2016,13 +1998,13 @@
         <v>8</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F49" s="18">
         <v>31249</v>
@@ -2039,19 +2021,19 @@
         <v>8</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F50" s="18">
-        <v>31249</v>
+        <v>33125</v>
       </c>
       <c r="G50" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H50" s="19"/>
       <c r="I50" s="19"/>
@@ -2062,13 +2044,13 @@
         <v>8</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F51" s="18">
         <v>31249</v>
@@ -2085,19 +2067,19 @@
         <v>8</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F52" s="18">
-        <v>31249</v>
+        <v>33125</v>
       </c>
       <c r="G52" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H52" s="19"/>
       <c r="I52" s="19"/>
@@ -2108,13 +2090,13 @@
         <v>8</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F53" s="18">
         <v>31249</v>
@@ -2131,19 +2113,19 @@
         <v>8</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="F54" s="18">
-        <v>31249</v>
+        <v>33125</v>
       </c>
       <c r="G54" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H54" s="19"/>
       <c r="I54" s="19"/>
@@ -2154,13 +2136,13 @@
         <v>8</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F55" s="18">
         <v>31249</v>
@@ -2177,19 +2159,19 @@
         <v>8</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="F56" s="18">
-        <v>31249</v>
+        <v>33125</v>
       </c>
       <c r="G56" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H56" s="19"/>
       <c r="I56" s="19"/>
@@ -2200,13 +2182,13 @@
         <v>8</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="F57" s="18">
         <v>31249</v>
@@ -2223,19 +2205,19 @@
         <v>8</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="F58" s="18">
-        <v>31249</v>
+        <v>33125</v>
       </c>
       <c r="G58" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H58" s="19"/>
       <c r="I58" s="19"/>
@@ -2246,13 +2228,13 @@
         <v>8</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="F59" s="18">
         <v>31249</v>
@@ -2269,19 +2251,19 @@
         <v>8</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="D60" s="17" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="F60" s="18">
-        <v>31249</v>
+        <v>33125</v>
       </c>
       <c r="G60" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H60" s="19"/>
       <c r="I60" s="19"/>
@@ -2292,16 +2274,16 @@
         <v>8</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="F61" s="18">
-        <v>16666</v>
+        <v>31249</v>
       </c>
       <c r="G61" s="18">
         <v>781242</v>
@@ -2315,19 +2297,19 @@
         <v>8</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>11</v>
+        <v>48</v>
       </c>
       <c r="F62" s="18">
-        <v>40000</v>
+        <v>33125</v>
       </c>
       <c r="G62" s="18">
-        <v>1000000</v>
+        <v>828116</v>
       </c>
       <c r="H62" s="19"/>
       <c r="I62" s="19"/>
@@ -2338,19 +2320,19 @@
         <v>8</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>57</v>
+        <v>27</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>58</v>
+        <v>28</v>
       </c>
       <c r="E63" s="16" t="s">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="F63" s="18">
-        <v>40000</v>
+        <v>31249</v>
       </c>
       <c r="G63" s="18">
-        <v>1000000</v>
+        <v>781242</v>
       </c>
       <c r="H63" s="19"/>
       <c r="I63" s="19"/>
@@ -2361,19 +2343,19 @@
         <v>8</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="D64" s="17" t="s">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="E64" s="16" t="s">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="F64" s="18">
-        <v>10667</v>
+        <v>33125</v>
       </c>
       <c r="G64" s="18">
-        <v>1000000</v>
+        <v>828116</v>
       </c>
       <c r="H64" s="19"/>
       <c r="I64" s="19"/>
@@ -2384,19 +2366,19 @@
         <v>8</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>59</v>
+        <v>27</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>60</v>
+        <v>28</v>
       </c>
       <c r="E65" s="16" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="F65" s="18">
-        <v>40000</v>
+        <v>31249</v>
       </c>
       <c r="G65" s="18">
-        <v>1300000</v>
+        <v>781242</v>
       </c>
       <c r="H65" s="19"/>
       <c r="I65" s="19"/>
@@ -2407,19 +2389,19 @@
         <v>8</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>59</v>
+        <v>35</v>
       </c>
       <c r="D66" s="17" t="s">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="E66" s="16" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="F66" s="18">
-        <v>40000</v>
+        <v>33125</v>
       </c>
       <c r="G66" s="18">
-        <v>1300000</v>
+        <v>828116</v>
       </c>
       <c r="H66" s="19"/>
       <c r="I66" s="19"/>
@@ -2430,19 +2412,19 @@
         <v>8</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>59</v>
+        <v>27</v>
       </c>
       <c r="D67" s="17" t="s">
-        <v>60</v>
+        <v>28</v>
       </c>
       <c r="E67" s="16" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="F67" s="18">
-        <v>40000</v>
+        <v>31249</v>
       </c>
       <c r="G67" s="18">
-        <v>1300000</v>
+        <v>781242</v>
       </c>
       <c r="H67" s="19"/>
       <c r="I67" s="19"/>
@@ -2453,19 +2435,19 @@
         <v>8</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>59</v>
+        <v>35</v>
       </c>
       <c r="D68" s="17" t="s">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="E68" s="16" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="F68" s="18">
-        <v>40000</v>
+        <v>33125</v>
       </c>
       <c r="G68" s="18">
-        <v>1300000</v>
+        <v>828116</v>
       </c>
       <c r="H68" s="19"/>
       <c r="I68" s="19"/>
@@ -2476,19 +2458,19 @@
         <v>8</v>
       </c>
       <c r="C69" s="16" t="s">
-        <v>59</v>
+        <v>27</v>
       </c>
       <c r="D69" s="17" t="s">
-        <v>60</v>
+        <v>28</v>
       </c>
       <c r="E69" s="16" t="s">
-        <v>11</v>
+        <v>52</v>
       </c>
       <c r="F69" s="18">
-        <v>40000</v>
+        <v>31249</v>
       </c>
       <c r="G69" s="18">
-        <v>1300000</v>
+        <v>781242</v>
       </c>
       <c r="H69" s="19"/>
       <c r="I69" s="19"/>
@@ -2499,19 +2481,19 @@
         <v>8</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>59</v>
+        <v>35</v>
       </c>
       <c r="D70" s="17" t="s">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="E70" s="16" t="s">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="F70" s="18">
-        <v>40000</v>
+        <v>33125</v>
       </c>
       <c r="G70" s="18">
-        <v>1300000</v>
+        <v>828116</v>
       </c>
       <c r="H70" s="19"/>
       <c r="I70" s="19"/>
@@ -2522,19 +2504,19 @@
         <v>8</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>59</v>
+        <v>27</v>
       </c>
       <c r="D71" s="17" t="s">
-        <v>60</v>
+        <v>28</v>
       </c>
       <c r="E71" s="16" t="s">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="F71" s="18">
-        <v>20000</v>
+        <v>31249</v>
       </c>
       <c r="G71" s="18">
-        <v>1300000</v>
+        <v>781242</v>
       </c>
       <c r="H71" s="19"/>
       <c r="I71" s="19"/>
@@ -2545,13 +2527,13 @@
         <v>8</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="D72" s="17" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="E72" s="16" t="s">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="F72" s="18">
         <v>33125</v>
@@ -2568,19 +2550,19 @@
         <v>8</v>
       </c>
       <c r="C73" s="16" t="s">
-        <v>65</v>
+        <v>27</v>
       </c>
       <c r="D73" s="17" t="s">
-        <v>66</v>
+        <v>28</v>
       </c>
       <c r="E73" s="16" t="s">
-        <v>17</v>
+        <v>54</v>
       </c>
       <c r="F73" s="18">
-        <v>33125</v>
+        <v>31249</v>
       </c>
       <c r="G73" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H73" s="19"/>
       <c r="I73" s="19"/>
@@ -2591,13 +2573,13 @@
         <v>8</v>
       </c>
       <c r="C74" s="16" t="s">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="D74" s="17" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="E74" s="16" t="s">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="F74" s="18">
         <v>33125</v>
@@ -2614,19 +2596,19 @@
         <v>8</v>
       </c>
       <c r="C75" s="16" t="s">
-        <v>65</v>
+        <v>27</v>
       </c>
       <c r="D75" s="17" t="s">
-        <v>66</v>
+        <v>28</v>
       </c>
       <c r="E75" s="16" t="s">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="F75" s="18">
-        <v>33125</v>
+        <v>31249</v>
       </c>
       <c r="G75" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H75" s="19"/>
       <c r="I75" s="19"/>
@@ -2637,13 +2619,13 @@
         <v>8</v>
       </c>
       <c r="C76" s="16" t="s">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="D76" s="17" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="E76" s="16" t="s">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="F76" s="18">
         <v>33125</v>
@@ -2660,19 +2642,19 @@
         <v>8</v>
       </c>
       <c r="C77" s="16" t="s">
-        <v>65</v>
+        <v>27</v>
       </c>
       <c r="D77" s="17" t="s">
-        <v>66</v>
+        <v>28</v>
       </c>
       <c r="E77" s="16" t="s">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="F77" s="18">
-        <v>33125</v>
+        <v>31249</v>
       </c>
       <c r="G77" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H77" s="19"/>
       <c r="I77" s="19"/>
@@ -2683,13 +2665,13 @@
         <v>8</v>
       </c>
       <c r="C78" s="16" t="s">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="D78" s="17" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="E78" s="16" t="s">
-        <v>22</v>
+        <v>56</v>
       </c>
       <c r="F78" s="18">
         <v>33125</v>
@@ -2706,19 +2688,19 @@
         <v>8</v>
       </c>
       <c r="C79" s="16" t="s">
-        <v>65</v>
+        <v>27</v>
       </c>
       <c r="D79" s="17" t="s">
-        <v>66</v>
+        <v>28</v>
       </c>
       <c r="E79" s="16" t="s">
-        <v>23</v>
+        <v>57</v>
       </c>
       <c r="F79" s="18">
-        <v>33125</v>
+        <v>31249</v>
       </c>
       <c r="G79" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H79" s="19"/>
       <c r="I79" s="19"/>
@@ -2729,13 +2711,13 @@
         <v>8</v>
       </c>
       <c r="C80" s="16" t="s">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="D80" s="17" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="E80" s="16" t="s">
-        <v>24</v>
+        <v>57</v>
       </c>
       <c r="F80" s="18">
         <v>33125</v>
@@ -2752,19 +2734,19 @@
         <v>8</v>
       </c>
       <c r="C81" s="16" t="s">
-        <v>65</v>
+        <v>27</v>
       </c>
       <c r="D81" s="17" t="s">
-        <v>66</v>
+        <v>28</v>
       </c>
       <c r="E81" s="16" t="s">
-        <v>25</v>
+        <v>58</v>
       </c>
       <c r="F81" s="18">
-        <v>33125</v>
+        <v>31249</v>
       </c>
       <c r="G81" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H81" s="19"/>
       <c r="I81" s="19"/>
@@ -2775,13 +2757,13 @@
         <v>8</v>
       </c>
       <c r="C82" s="16" t="s">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="D82" s="17" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="E82" s="16" t="s">
-        <v>26</v>
+        <v>58</v>
       </c>
       <c r="F82" s="18">
         <v>33125</v>
@@ -2798,19 +2780,19 @@
         <v>8</v>
       </c>
       <c r="C83" s="16" t="s">
-        <v>65</v>
+        <v>27</v>
       </c>
       <c r="D83" s="17" t="s">
-        <v>66</v>
+        <v>28</v>
       </c>
       <c r="E83" s="16" t="s">
-        <v>27</v>
+        <v>59</v>
       </c>
       <c r="F83" s="18">
-        <v>33125</v>
+        <v>31249</v>
       </c>
       <c r="G83" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H83" s="19"/>
       <c r="I83" s="19"/>
@@ -2821,13 +2803,13 @@
         <v>8</v>
       </c>
       <c r="C84" s="16" t="s">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="D84" s="17" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="E84" s="16" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="F84" s="18">
         <v>33125</v>
@@ -2844,19 +2826,19 @@
         <v>8</v>
       </c>
       <c r="C85" s="16" t="s">
-        <v>65</v>
+        <v>27</v>
       </c>
       <c r="D85" s="17" t="s">
-        <v>66</v>
+        <v>28</v>
       </c>
       <c r="E85" s="16" t="s">
-        <v>29</v>
+        <v>60</v>
       </c>
       <c r="F85" s="18">
-        <v>33125</v>
+        <v>31249</v>
       </c>
       <c r="G85" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H85" s="19"/>
       <c r="I85" s="19"/>
@@ -2867,13 +2849,13 @@
         <v>8</v>
       </c>
       <c r="C86" s="16" t="s">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="D86" s="17" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="E86" s="16" t="s">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="F86" s="18">
         <v>33125</v>
@@ -2890,19 +2872,19 @@
         <v>8</v>
       </c>
       <c r="C87" s="16" t="s">
-        <v>65</v>
+        <v>27</v>
       </c>
       <c r="D87" s="17" t="s">
-        <v>66</v>
+        <v>28</v>
       </c>
       <c r="E87" s="16" t="s">
-        <v>31</v>
+        <v>61</v>
       </c>
       <c r="F87" s="18">
-        <v>33125</v>
+        <v>31249</v>
       </c>
       <c r="G87" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H87" s="19"/>
       <c r="I87" s="19"/>
@@ -2913,13 +2895,13 @@
         <v>8</v>
       </c>
       <c r="C88" s="16" t="s">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="D88" s="17" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="E88" s="16" t="s">
-        <v>32</v>
+        <v>61</v>
       </c>
       <c r="F88" s="18">
         <v>33125</v>
@@ -2936,19 +2918,19 @@
         <v>8</v>
       </c>
       <c r="C89" s="16" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D89" s="17" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E89" s="16" t="s">
-        <v>33</v>
+        <v>61</v>
       </c>
       <c r="F89" s="18">
-        <v>33125</v>
+        <v>12114</v>
       </c>
       <c r="G89" s="18">
-        <v>828116</v>
+        <v>1423500</v>
       </c>
       <c r="H89" s="19"/>
       <c r="I89" s="19"/>
@@ -2959,19 +2941,19 @@
         <v>8</v>
       </c>
       <c r="C90" s="16" t="s">
-        <v>65</v>
+        <v>27</v>
       </c>
       <c r="D90" s="17" t="s">
-        <v>66</v>
+        <v>28</v>
       </c>
       <c r="E90" s="16" t="s">
-        <v>34</v>
+        <v>64</v>
       </c>
       <c r="F90" s="18">
-        <v>33125</v>
+        <v>31249</v>
       </c>
       <c r="G90" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H90" s="19"/>
       <c r="I90" s="19"/>
@@ -2982,13 +2964,13 @@
         <v>8</v>
       </c>
       <c r="C91" s="16" t="s">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="D91" s="17" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="E91" s="16" t="s">
-        <v>35</v>
+        <v>64</v>
       </c>
       <c r="F91" s="18">
         <v>33125</v>
@@ -3005,19 +2987,19 @@
         <v>8</v>
       </c>
       <c r="C92" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D92" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="E92" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="D92" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="E92" s="16" t="s">
-        <v>36</v>
-      </c>
       <c r="F92" s="18">
-        <v>33125</v>
+        <v>31249</v>
       </c>
       <c r="G92" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H92" s="19"/>
       <c r="I92" s="19"/>
@@ -3028,13 +3010,13 @@
         <v>8</v>
       </c>
       <c r="C93" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="D93" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="E93" s="16" t="s">
         <v>65</v>
-      </c>
-      <c r="D93" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="E93" s="16" t="s">
-        <v>37</v>
       </c>
       <c r="F93" s="18">
         <v>33125</v>
@@ -3051,19 +3033,19 @@
         <v>8</v>
       </c>
       <c r="C94" s="16" t="s">
-        <v>65</v>
+        <v>27</v>
       </c>
       <c r="D94" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="E94" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="E94" s="16" t="s">
-        <v>38</v>
-      </c>
       <c r="F94" s="18">
-        <v>33125</v>
+        <v>31249</v>
       </c>
       <c r="G94" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H94" s="19"/>
       <c r="I94" s="19"/>
@@ -3074,13 +3056,13 @@
         <v>8</v>
       </c>
       <c r="C95" s="16" t="s">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="D95" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="E95" s="16" t="s">
         <v>66</v>
-      </c>
-      <c r="E95" s="16" t="s">
-        <v>39</v>
       </c>
       <c r="F95" s="18">
         <v>33125</v>
@@ -3097,19 +3079,19 @@
         <v>8</v>
       </c>
       <c r="C96" s="16" t="s">
-        <v>65</v>
+        <v>27</v>
       </c>
       <c r="D96" s="17" t="s">
-        <v>66</v>
+        <v>28</v>
       </c>
       <c r="E96" s="16" t="s">
-        <v>40</v>
+        <v>67</v>
       </c>
       <c r="F96" s="18">
-        <v>33125</v>
+        <v>31249</v>
       </c>
       <c r="G96" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H96" s="19"/>
       <c r="I96" s="19"/>
@@ -3120,13 +3102,13 @@
         <v>8</v>
       </c>
       <c r="C97" s="16" t="s">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="D97" s="17" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="E97" s="16" t="s">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="F97" s="18">
         <v>33125</v>
@@ -3143,19 +3125,19 @@
         <v>8</v>
       </c>
       <c r="C98" s="16" t="s">
-        <v>65</v>
+        <v>27</v>
       </c>
       <c r="D98" s="17" t="s">
-        <v>66</v>
+        <v>28</v>
       </c>
       <c r="E98" s="16" t="s">
-        <v>42</v>
+        <v>68</v>
       </c>
       <c r="F98" s="18">
-        <v>33125</v>
+        <v>31249</v>
       </c>
       <c r="G98" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H98" s="19"/>
       <c r="I98" s="19"/>
@@ -3166,13 +3148,13 @@
         <v>8</v>
       </c>
       <c r="C99" s="16" t="s">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="D99" s="17" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="E99" s="16" t="s">
-        <v>43</v>
+        <v>68</v>
       </c>
       <c r="F99" s="18">
         <v>33125</v>
@@ -3189,19 +3171,19 @@
         <v>8</v>
       </c>
       <c r="C100" s="16" t="s">
-        <v>65</v>
+        <v>27</v>
       </c>
       <c r="D100" s="17" t="s">
-        <v>66</v>
+        <v>28</v>
       </c>
       <c r="E100" s="16" t="s">
-        <v>44</v>
+        <v>69</v>
       </c>
       <c r="F100" s="18">
-        <v>33125</v>
+        <v>31249</v>
       </c>
       <c r="G100" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H100" s="19"/>
       <c r="I100" s="19"/>
@@ -3212,13 +3194,13 @@
         <v>8</v>
       </c>
       <c r="C101" s="16" t="s">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="D101" s="17" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="E101" s="16" t="s">
-        <v>45</v>
+        <v>69</v>
       </c>
       <c r="F101" s="18">
         <v>33125</v>
@@ -3235,19 +3217,19 @@
         <v>8</v>
       </c>
       <c r="C102" s="16" t="s">
-        <v>65</v>
+        <v>27</v>
       </c>
       <c r="D102" s="17" t="s">
-        <v>66</v>
+        <v>28</v>
       </c>
       <c r="E102" s="16" t="s">
-        <v>46</v>
+        <v>70</v>
       </c>
       <c r="F102" s="18">
-        <v>33125</v>
+        <v>31249</v>
       </c>
       <c r="G102" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H102" s="19"/>
       <c r="I102" s="19"/>
@@ -3258,13 +3240,13 @@
         <v>8</v>
       </c>
       <c r="C103" s="16" t="s">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="D103" s="17" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="E103" s="16" t="s">
-        <v>47</v>
+        <v>70</v>
       </c>
       <c r="F103" s="18">
         <v>33125</v>
@@ -3281,19 +3263,19 @@
         <v>8</v>
       </c>
       <c r="C104" s="16" t="s">
-        <v>65</v>
+        <v>27</v>
       </c>
       <c r="D104" s="17" t="s">
-        <v>66</v>
+        <v>28</v>
       </c>
       <c r="E104" s="16" t="s">
-        <v>48</v>
+        <v>71</v>
       </c>
       <c r="F104" s="18">
-        <v>33125</v>
+        <v>31249</v>
       </c>
       <c r="G104" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H104" s="19"/>
       <c r="I104" s="19"/>
@@ -3304,13 +3286,13 @@
         <v>8</v>
       </c>
       <c r="C105" s="16" t="s">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="D105" s="17" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="E105" s="16" t="s">
-        <v>49</v>
+        <v>71</v>
       </c>
       <c r="F105" s="18">
         <v>33125</v>
@@ -3327,19 +3309,19 @@
         <v>8</v>
       </c>
       <c r="C106" s="16" t="s">
-        <v>65</v>
+        <v>27</v>
       </c>
       <c r="D106" s="17" t="s">
-        <v>66</v>
+        <v>28</v>
       </c>
       <c r="E106" s="16" t="s">
-        <v>50</v>
+        <v>72</v>
       </c>
       <c r="F106" s="18">
-        <v>33125</v>
+        <v>31249</v>
       </c>
       <c r="G106" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H106" s="19"/>
       <c r="I106" s="19"/>
@@ -3350,13 +3332,13 @@
         <v>8</v>
       </c>
       <c r="C107" s="16" t="s">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="D107" s="17" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="E107" s="16" t="s">
-        <v>51</v>
+        <v>72</v>
       </c>
       <c r="F107" s="18">
         <v>33125</v>
@@ -3373,19 +3355,19 @@
         <v>8</v>
       </c>
       <c r="C108" s="16" t="s">
-        <v>67</v>
+        <v>27</v>
       </c>
       <c r="D108" s="17" t="s">
-        <v>68</v>
+        <v>28</v>
       </c>
       <c r="E108" s="16" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="F108" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G108" s="18">
-        <v>689454</v>
+        <v>781242</v>
       </c>
       <c r="H108" s="19"/>
       <c r="I108" s="19"/>
@@ -3396,19 +3378,19 @@
         <v>8</v>
       </c>
       <c r="C109" s="16" t="s">
-        <v>67</v>
+        <v>35</v>
       </c>
       <c r="D109" s="17" t="s">
-        <v>68</v>
+        <v>36</v>
       </c>
       <c r="E109" s="16" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="F109" s="18">
-        <v>27578</v>
+        <v>33125</v>
       </c>
       <c r="G109" s="18">
-        <v>689454</v>
+        <v>828116</v>
       </c>
       <c r="H109" s="19"/>
       <c r="I109" s="19"/>
@@ -3419,19 +3401,19 @@
         <v>8</v>
       </c>
       <c r="C110" s="16" t="s">
-        <v>67</v>
+        <v>27</v>
       </c>
       <c r="D110" s="17" t="s">
-        <v>68</v>
+        <v>28</v>
       </c>
       <c r="E110" s="16" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="F110" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G110" s="18">
-        <v>689454</v>
+        <v>781242</v>
       </c>
       <c r="H110" s="19"/>
       <c r="I110" s="19"/>
@@ -3442,19 +3424,19 @@
         <v>8</v>
       </c>
       <c r="C111" s="16" t="s">
-        <v>67</v>
+        <v>27</v>
       </c>
       <c r="D111" s="17" t="s">
-        <v>68</v>
+        <v>28</v>
       </c>
       <c r="E111" s="16" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="F111" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G111" s="18">
-        <v>689454</v>
+        <v>781242</v>
       </c>
       <c r="H111" s="19"/>
       <c r="I111" s="19"/>
@@ -3465,19 +3447,19 @@
         <v>8</v>
       </c>
       <c r="C112" s="16" t="s">
-        <v>67</v>
+        <v>27</v>
       </c>
       <c r="D112" s="17" t="s">
-        <v>68</v>
+        <v>28</v>
       </c>
       <c r="E112" s="16" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="F112" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G112" s="18">
-        <v>689454</v>
+        <v>781242</v>
       </c>
       <c r="H112" s="19"/>
       <c r="I112" s="19"/>
@@ -3488,19 +3470,19 @@
         <v>8</v>
       </c>
       <c r="C113" s="16" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="D113" s="17" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="E113" s="16" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F113" s="18">
-        <v>27578</v>
+        <v>10667</v>
       </c>
       <c r="G113" s="18">
-        <v>689454</v>
+        <v>1000000</v>
       </c>
       <c r="H113" s="19"/>
       <c r="I113" s="19"/>
@@ -3511,19 +3493,19 @@
         <v>8</v>
       </c>
       <c r="C114" s="16" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="D114" s="17" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="E114" s="16" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F114" s="18">
-        <v>27578</v>
+        <v>20000</v>
       </c>
       <c r="G114" s="18">
-        <v>689454</v>
+        <v>1423500</v>
       </c>
       <c r="H114" s="19"/>
       <c r="I114" s="19"/>
@@ -3534,19 +3516,19 @@
         <v>8</v>
       </c>
       <c r="C115" s="16" t="s">
-        <v>67</v>
+        <v>27</v>
       </c>
       <c r="D115" s="17" t="s">
-        <v>68</v>
+        <v>28</v>
       </c>
       <c r="E115" s="16" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="F115" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G115" s="18">
-        <v>689454</v>
+        <v>781242</v>
       </c>
       <c r="H115" s="19"/>
       <c r="I115" s="19"/>
@@ -3557,19 +3539,19 @@
         <v>8</v>
       </c>
       <c r="C116" s="16" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="D116" s="17" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="E116" s="16" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="F116" s="18">
-        <v>27578</v>
+        <v>40000</v>
       </c>
       <c r="G116" s="18">
-        <v>689454</v>
+        <v>1000000</v>
       </c>
       <c r="H116" s="19"/>
       <c r="I116" s="19"/>
@@ -3580,19 +3562,19 @@
         <v>8</v>
       </c>
       <c r="C117" s="16" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="D117" s="17" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="E117" s="16" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="F117" s="18">
-        <v>27578</v>
+        <v>40000</v>
       </c>
       <c r="G117" s="18">
-        <v>689454</v>
+        <v>1423500</v>
       </c>
       <c r="H117" s="19"/>
       <c r="I117" s="19"/>
@@ -3603,19 +3585,19 @@
         <v>8</v>
       </c>
       <c r="C118" s="16" t="s">
-        <v>67</v>
+        <v>27</v>
       </c>
       <c r="D118" s="17" t="s">
-        <v>68</v>
+        <v>28</v>
       </c>
       <c r="E118" s="16" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="F118" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G118" s="18">
-        <v>689454</v>
+        <v>781242</v>
       </c>
       <c r="H118" s="19"/>
       <c r="I118" s="19"/>
@@ -3626,19 +3608,19 @@
         <v>8</v>
       </c>
       <c r="C119" s="16" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="D119" s="17" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="E119" s="16" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F119" s="18">
-        <v>27578</v>
+        <v>40000</v>
       </c>
       <c r="G119" s="18">
-        <v>689454</v>
+        <v>1000000</v>
       </c>
       <c r="H119" s="19"/>
       <c r="I119" s="19"/>
@@ -3649,19 +3631,19 @@
         <v>8</v>
       </c>
       <c r="C120" s="16" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="D120" s="17" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="E120" s="16" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F120" s="18">
-        <v>27578</v>
+        <v>40000</v>
       </c>
       <c r="G120" s="18">
-        <v>689454</v>
+        <v>1423500</v>
       </c>
       <c r="H120" s="19"/>
       <c r="I120" s="19"/>
@@ -3672,19 +3654,19 @@
         <v>8</v>
       </c>
       <c r="C121" s="16" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="D121" s="17" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="E121" s="16" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F121" s="18">
-        <v>27578</v>
+        <v>40000</v>
       </c>
       <c r="G121" s="18">
-        <v>689454</v>
+        <v>1423500</v>
       </c>
       <c r="H121" s="19"/>
       <c r="I121" s="19"/>
@@ -3695,19 +3677,19 @@
         <v>8</v>
       </c>
       <c r="C122" s="16" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="D122" s="17" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="E122" s="16" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F122" s="18">
-        <v>27578</v>
+        <v>40000</v>
       </c>
       <c r="G122" s="18">
-        <v>689454</v>
+        <v>1423500</v>
       </c>
       <c r="H122" s="19"/>
       <c r="I122" s="19"/>
@@ -3718,19 +3700,19 @@
         <v>8</v>
       </c>
       <c r="C123" s="16" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="D123" s="17" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="E123" s="16" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F123" s="18">
-        <v>27578</v>
+        <v>40000</v>
       </c>
       <c r="G123" s="18">
-        <v>689454</v>
+        <v>1423500</v>
       </c>
       <c r="H123" s="19"/>
       <c r="I123" s="19"/>
@@ -3741,121 +3723,75 @@
         <v>8</v>
       </c>
       <c r="C124" s="16" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="D124" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="E124" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="E124" s="16" t="s">
-        <v>26</v>
-      </c>
       <c r="F124" s="18">
-        <v>12114</v>
+        <v>40000</v>
       </c>
       <c r="G124" s="18">
-        <v>1400000</v>
+        <v>1423500</v>
       </c>
       <c r="H124" s="19"/>
       <c r="I124" s="19"/>
       <c r="J124" s="20"/>
     </row>
     <row r="125" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B125" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C125" s="16" t="s">
+      <c r="B125" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C125" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="D125" s="17" t="s">
+      <c r="D125" s="23" t="s">
         <v>88</v>
       </c>
-      <c r="E125" s="16" t="s">
+      <c r="E125" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="F125" s="18">
-        <v>55042</v>
-      </c>
-      <c r="G125" s="18">
-        <v>1423500</v>
-      </c>
-      <c r="H125" s="19"/>
-      <c r="I125" s="19"/>
-      <c r="J125" s="20"/>
-    </row>
-    <row r="126" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B126" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C126" s="16" t="s">
-        <v>90</v>
-      </c>
-      <c r="D126" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="E126" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="F126" s="18">
-        <v>56940</v>
-      </c>
-      <c r="G126" s="18">
-        <v>0</v>
-      </c>
-      <c r="H126" s="19"/>
-      <c r="I126" s="19"/>
-      <c r="J126" s="20"/>
-    </row>
-    <row r="127" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B127" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C127" s="22" t="s">
-        <v>93</v>
-      </c>
-      <c r="D127" s="23" t="s">
-        <v>94</v>
-      </c>
-      <c r="E127" s="22" t="s">
-        <v>95</v>
-      </c>
-      <c r="F127" s="24">
+      <c r="F125" s="24">
         <v>4640</v>
       </c>
-      <c r="G127" s="24">
+      <c r="G125" s="24">
         <v>1600000</v>
       </c>
-      <c r="H127" s="25"/>
-      <c r="I127" s="25"/>
-      <c r="J127" s="26"/>
-    </row>
-    <row r="132" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B132" s="32" t="s">
-        <v>105</v>
-      </c>
-      <c r="C132" s="32"/>
-      <c r="H132" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="I132" s="1"/>
-      <c r="J132" s="1"/>
-    </row>
-    <row r="133" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B133" s="32" t="s">
-        <v>104</v>
-      </c>
-      <c r="C133" s="32"/>
-      <c r="H133" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="I133" s="1"/>
-      <c r="J133" s="1"/>
+      <c r="H125" s="25"/>
+      <c r="I125" s="25"/>
+      <c r="J125" s="26"/>
+    </row>
+    <row r="130" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B130" s="32" t="s">
+        <v>99</v>
+      </c>
+      <c r="C130" s="32"/>
+      <c r="H130" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="I130" s="1"/>
+      <c r="J130" s="1"/>
+    </row>
+    <row r="131" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B131" s="32" t="s">
+        <v>98</v>
+      </c>
+      <c r="C131" s="32"/>
+      <c r="H131" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="I131" s="1"/>
+      <c r="J131" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B133:C133"/>
-    <mergeCell ref="B132:C132"/>
-    <mergeCell ref="H133:J133"/>
-    <mergeCell ref="H132:J132"/>
+    <mergeCell ref="B131:C131"/>
+    <mergeCell ref="B130:C130"/>
+    <mergeCell ref="H131:J131"/>
+    <mergeCell ref="H130:J130"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>
